--- a/app/PD.xlsx
+++ b/app/PD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pooh\~Pooh by Year - all files not Pooh Prog related\2025-26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D82D0E-4D71-4D68-9C04-7835DDF0F649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D30120-E6B4-46DB-8EAD-2C2E7732987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mmddyyyy"/>
+    <numFmt numFmtId="164" formatCode="mmddyyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -96,7 +92,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -489,8 +485,7 @@
     </row>
     <row r="9" spans="1:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
-        <f t="shared" si="0"/>
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B9" s="2">
         <v>9</v>
@@ -507,7 +502,6 @@
     </row>
     <row r="11" spans="1:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
-        <f t="shared" si="0"/>
         <v>46060</v>
       </c>
       <c r="B11" s="2">
